--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,10 +950,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-400</v>
-      </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="O18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1202,28 +1269,34 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1240,34 +1313,40 @@
         <v>-300</v>
       </c>
       <c r="H21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,10 +1354,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1368,11 +1459,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
@@ -1380,14 +1471,14 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>100</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1730,72 +1869,84 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2182,57 +2379,69 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2287,14 +2502,14 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,16 +2878,18 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2640,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2663,13 +2924,19 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2678,25 +2945,25 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -2704,11 +2971,17 @@
       <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2728,22 +3001,22 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -2751,13 +3024,19 @@
       <c r="P59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2766,25 +3045,25 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>700</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
@@ -2793,10 +3072,16 @@
         <v>700</v>
       </c>
       <c r="P60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>700</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,17 +3089,17 @@
         <v>700</v>
       </c>
       <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2825,22 +3110,28 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,10 +3142,10 @@
         <v>2100</v>
       </c>
       <c r="F62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H62" s="3">
         <v>2200</v>
@@ -2863,28 +3154,34 @@
         <v>2200</v>
       </c>
       <c r="J62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-107000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-106700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-106300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-105900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-105600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-105200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-104900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-104600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-106000</v>
       </c>
       <c r="M72" s="3">
         <v>-104600</v>
       </c>
       <c r="N72" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-104700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-104800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2000</v>
+        <v>-2400</v>
       </c>
       <c r="E76" s="3">
-        <v>-1800</v>
+        <v>-2300</v>
       </c>
       <c r="F76" s="3">
         <v>-2000</v>
       </c>
       <c r="G76" s="3">
-        <v>-2200</v>
+        <v>-1800</v>
       </c>
       <c r="H76" s="3">
         <v>-2000</v>
       </c>
       <c r="I76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-6100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4334,49 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,10 +970,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,22 +1161,22 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1158,16 +1185,16 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>400</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,22 +1214,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
@@ -1208,16 +1238,16 @@
         <v>-400</v>
       </c>
       <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1275,28 +1309,31 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1319,34 +1356,37 @@
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>200</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,7 +1400,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1447,52 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1465,8 +1511,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
@@ -1477,11 +1523,11 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,49 +1606,52 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,49 +1659,52 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1875,28 +1945,31 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,49 +1977,52 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,104 +2083,110 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,40 +2226,41 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>600</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2182,16 +2269,19 @@
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2385,63 +2484,69 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
       </c>
       <c r="F46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,13 +2595,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2508,11 +2616,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>700</v>
       </c>
       <c r="F54" s="3">
+        <v>700</v>
+      </c>
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,37 +3010,38 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2930,17 +3061,20 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2951,22 +3085,22 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -2977,11 +3111,14 @@
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3007,19 +3144,19 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,7 +3179,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3051,22 +3191,22 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>2200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>700</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
@@ -3078,15 +3218,18 @@
         <v>700</v>
       </c>
       <c r="R60" s="3">
+        <v>700</v>
+      </c>
+      <c r="S60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
@@ -3095,14 +3238,14 @@
         <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>700</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3116,22 +3259,25 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>600</v>
       </c>
       <c r="P61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q61" s="3">
         <v>500</v>
       </c>
       <c r="R61" s="3">
+        <v>500</v>
+      </c>
+      <c r="S61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3148,7 +3294,7 @@
         <v>2100</v>
       </c>
       <c r="H62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I62" s="3">
         <v>2200</v>
@@ -3160,28 +3306,31 @@
         <v>2200</v>
       </c>
       <c r="L62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="M62" s="3">
         <v>2100</v>
       </c>
       <c r="N62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O62" s="3">
         <v>4900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>3100</v>
       </c>
       <c r="F66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G66" s="3">
         <v>3000</v>
       </c>
       <c r="H66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-107800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-107400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-106700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-106300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-105600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-105200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-104900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-104600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-106000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-104600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-104700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,49 +4159,52 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,10 +4551,10 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
@@ -4346,25 +4563,25 @@
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
@@ -4373,10 +4590,13 @@
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,28 +5058,31 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>800</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4845,28 +5091,31 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-300</v>
       </c>
       <c r="K102" s="3">
         <v>-300</v>
       </c>
       <c r="L102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-300</v>
       </c>
       <c r="Q102" s="3">
         <v>-300</v>
       </c>
       <c r="R102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,10 +987,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,34 +1178,35 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1188,16 +1215,16 @@
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,22 +1247,22 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
@@ -1241,16 +1271,16 @@
         <v>-400</v>
       </c>
       <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-400</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1312,28 +1346,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
         <v>-300</v>
@@ -1359,34 +1396,37 @@
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>200</v>
       </c>
       <c r="Q21" s="3">
         <v>200</v>
       </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1514,8 +1560,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1526,11 +1572,11 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1948,81 +2018,87 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,43 +2313,44 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>600</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
       </c>
       <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
@@ -2272,16 +2359,19 @@
         <v>200</v>
       </c>
       <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,13 +2535,16 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2487,66 +2586,72 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>700</v>
       </c>
       <c r="F46" s="3">
         <v>700</v>
       </c>
       <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,7 +2715,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2619,11 +2727,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>700</v>
       </c>
       <c r="F54" s="3">
         <v>700</v>
       </c>
       <c r="G54" s="3">
+        <v>700</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,31 +3151,31 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3064,20 +3195,23 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3088,22 +3222,22 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -3114,16 +3248,19 @@
       <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3147,19 +3284,19 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3182,7 +3322,7 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3194,22 +3334,22 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
       </c>
       <c r="N60" s="3">
+        <v>800</v>
+      </c>
+      <c r="O60" s="3">
         <v>2200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
       </c>
       <c r="P60" s="3">
         <v>700</v>
@@ -3221,10 +3361,13 @@
         <v>700</v>
       </c>
       <c r="S60" s="3">
+        <v>700</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
@@ -3241,14 +3384,14 @@
         <v>700</v>
       </c>
       <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3262,22 +3405,25 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>600</v>
       </c>
       <c r="Q61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R61" s="3">
         <v>500</v>
       </c>
       <c r="S61" s="3">
+        <v>500</v>
+      </c>
+      <c r="T61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3297,7 +3443,7 @@
         <v>2100</v>
       </c>
       <c r="I62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J62" s="3">
         <v>2200</v>
@@ -3309,28 +3455,31 @@
         <v>2200</v>
       </c>
       <c r="M62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="N62" s="3">
         <v>2100</v>
       </c>
       <c r="O62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P62" s="3">
         <v>4900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3100</v>
       </c>
       <c r="F66" s="3">
         <v>3100</v>
       </c>
       <c r="G66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H66" s="3">
         <v>3000</v>
       </c>
       <c r="I66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-108200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-107800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-107000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-106700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-106300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-105900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-105600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-104900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-104600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-106000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-104600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-104800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,22 +4756,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
@@ -4566,25 +4783,25 @@
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
@@ -4593,10 +4810,13 @@
         <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5304,34 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>800</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5094,28 +5340,31 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,48 +5428,51 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-300</v>
       </c>
       <c r="L102" s="3">
         <v>-300</v>
       </c>
       <c r="M102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-300</v>
       </c>
       <c r="R102" s="3">
         <v>-300</v>
       </c>
       <c r="S102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,13 +948,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -990,10 +1003,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,28 +1214,28 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1218,16 +1244,16 @@
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,28 +1273,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
@@ -1274,16 +1303,16 @@
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
       </c>
       <c r="S18" s="3">
         <v>-400</v>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1349,28 +1382,31 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
@@ -1399,34 +1435,37 @@
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>200</v>
       </c>
       <c r="S21" s="3">
+        <v>200</v>
+      </c>
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1485,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-400</v>
       </c>
       <c r="N23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1563,8 +1608,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1575,11 +1620,11 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2021,84 +2090,90 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,46 +2399,47 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
@@ -2362,16 +2448,19 @@
         <v>200</v>
       </c>
       <c r="R41" s="3">
+        <v>200</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,17 +2633,20 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2589,69 +2687,75 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>700</v>
       </c>
       <c r="G46" s="3">
         <v>700</v>
       </c>
       <c r="H46" s="3">
+        <v>700</v>
+      </c>
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,7 +2825,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2730,11 +2837,11 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>700</v>
       </c>
       <c r="G54" s="3">
         <v>700</v>
       </c>
       <c r="H54" s="3">
+        <v>700</v>
+      </c>
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,31 +3284,31 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3209,12 +3342,12 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3225,22 +3358,22 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
@@ -3251,11 +3384,14 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,7 +3399,7 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3287,19 +3423,19 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -3310,13 +3446,16 @@
       <c r="T59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
@@ -3325,7 +3464,7 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3337,22 +3476,22 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
         <v>2200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>700</v>
       </c>
       <c r="Q60" s="3">
         <v>700</v>
@@ -3364,21 +3503,24 @@
         <v>700</v>
       </c>
       <c r="T60" s="3">
+        <v>700</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
       </c>
       <c r="F61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
@@ -3387,14 +3529,14 @@
         <v>700</v>
       </c>
       <c r="I61" s="3">
+        <v>700</v>
+      </c>
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3408,22 +3550,25 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>600</v>
       </c>
       <c r="R61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S61" s="3">
         <v>500</v>
       </c>
       <c r="T61" s="3">
+        <v>500</v>
+      </c>
+      <c r="U61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3446,7 +3591,7 @@
         <v>2100</v>
       </c>
       <c r="J62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K62" s="3">
         <v>2200</v>
@@ -3458,28 +3603,31 @@
         <v>2200</v>
       </c>
       <c r="N62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="O62" s="3">
         <v>2100</v>
       </c>
       <c r="P62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3100</v>
       </c>
       <c r="G66" s="3">
         <v>3100</v>
       </c>
       <c r="H66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I66" s="3">
         <v>3000</v>
       </c>
       <c r="J66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-108900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-108500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-108200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-107800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-107400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-107000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-106700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-106300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-105900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-104900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-104600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-104700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-104800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,16 +4984,16 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
@@ -4786,25 +5002,25 @@
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
@@ -4813,10 +5029,13 @@
         <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,34 +5549,37 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>800</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5343,28 +5588,31 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-300</v>
       </c>
       <c r="M102" s="3">
         <v>-300</v>
       </c>
       <c r="N102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-300</v>
       </c>
       <c r="S102" s="3">
         <v>-300</v>
       </c>
       <c r="T102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,17 +962,18 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>-100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
@@ -1006,10 +1020,13 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1217,28 +1244,28 @@
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
@@ -1247,16 +1274,16 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,28 +1306,28 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
@@ -1306,16 +1336,16 @@
         <v>-400</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-400</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1385,28 +1419,31 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,10 +1454,10 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
@@ -1438,34 +1475,37 @@
         <v>-300</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>200</v>
       </c>
       <c r="S21" s="3">
         <v>200</v>
       </c>
       <c r="T21" s="3">
+        <v>200</v>
+      </c>
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,7 +1528,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,58 +1575,61 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1611,8 +1657,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1623,11 +1669,11 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,58 +1761,61 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,58 +1823,61 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2093,28 +2163,31 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2122,58 +2195,61 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2240,122 +2319,128 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,49 +2486,50 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
@@ -2451,16 +2538,19 @@
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,11 +2744,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2690,72 +2789,78 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
       </c>
       <c r="I46" s="3">
+        <v>700</v>
+      </c>
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2828,7 +2936,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2840,11 +2948,11 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>700</v>
       </c>
       <c r="H54" s="3">
         <v>700</v>
       </c>
       <c r="I54" s="3">
+        <v>700</v>
+      </c>
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,13 +3402,14 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3287,31 +3418,31 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3345,12 +3479,12 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3361,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3387,11 +3521,14 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3402,7 +3539,7 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -3426,19 +3563,19 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,7 +3598,7 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -3467,7 +3607,7 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3479,22 +3619,22 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>700</v>
       </c>
       <c r="R60" s="3">
         <v>700</v>
@@ -3506,24 +3646,27 @@
         <v>700</v>
       </c>
       <c r="U60" s="3">
+        <v>700</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>800</v>
       </c>
       <c r="F61" s="3">
         <v>800</v>
       </c>
       <c r="G61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
@@ -3532,14 +3675,14 @@
         <v>700</v>
       </c>
       <c r="J61" s="3">
+        <v>700</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3553,27 +3696,30 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>600</v>
       </c>
       <c r="S61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T61" s="3">
         <v>500</v>
       </c>
       <c r="U61" s="3">
+        <v>500</v>
+      </c>
+      <c r="V61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
         <v>2100</v>
@@ -3594,7 +3740,7 @@
         <v>2100</v>
       </c>
       <c r="K62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="L62" s="3">
         <v>2200</v>
@@ -3606,28 +3752,31 @@
         <v>2200</v>
       </c>
       <c r="O62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="P62" s="3">
         <v>2100</v>
       </c>
       <c r="Q62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R62" s="3">
         <v>4900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,58 +3970,61 @@
         <v>3400</v>
       </c>
       <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3100</v>
       </c>
       <c r="H66" s="3">
         <v>3100</v>
       </c>
       <c r="I66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J66" s="3">
         <v>3000</v>
       </c>
       <c r="K66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-108900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-108500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-108200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-107800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-107400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-106700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-106300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-105200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-104900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-104600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-106000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-104600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-104700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-104800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4548,58 +4743,61 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,13 +4819,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4987,16 +5204,16 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
@@ -5005,25 +5222,25 @@
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
@@ -5032,10 +5249,13 @@
         <v>-300</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,37 +5795,40 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>800</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5591,28 +5837,31 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-300</v>
       </c>
       <c r="N102" s="3">
         <v>-300</v>
       </c>
       <c r="O102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-300</v>
       </c>
       <c r="T102" s="3">
         <v>-300</v>
       </c>
       <c r="U102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,11 +986,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>-100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
@@ -1023,10 +1037,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1247,28 +1274,28 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
@@ -1277,16 +1304,16 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1309,28 +1339,28 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
@@ -1339,16 +1369,16 @@
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
-        <v>-300</v>
-      </c>
       <c r="T18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-400</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1422,28 +1456,31 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1457,11 +1494,11 @@
         <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
@@ -1478,34 +1515,37 @@
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>200</v>
       </c>
       <c r="T21" s="3">
         <v>200</v>
       </c>
       <c r="U21" s="3">
+        <v>200</v>
+      </c>
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1660,8 +1706,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1672,11 +1718,11 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
       </c>
       <c r="T27" s="3">
         <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2166,90 +2236,96 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,52 +2573,53 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
@@ -2541,16 +2628,19 @@
         <v>200</v>
       </c>
       <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,11 +2846,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2792,75 +2891,81 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>700</v>
       </c>
       <c r="I46" s="3">
         <v>700</v>
       </c>
       <c r="J46" s="3">
+        <v>700</v>
+      </c>
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2939,7 +3047,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2951,11 +3059,11 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>700</v>
       </c>
       <c r="I54" s="3">
         <v>700</v>
       </c>
       <c r="J54" s="3">
+        <v>700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,17 +3533,18 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -3421,31 +3552,31 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3482,12 +3616,12 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3498,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
@@ -3524,16 +3658,19 @@
       <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -3542,7 +3679,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3566,19 +3703,19 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
@@ -3589,19 +3726,22 @@
       <c r="V59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -3610,7 +3750,7 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -3622,22 +3762,22 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
       </c>
       <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
         <v>2200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>700</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
@@ -3649,10 +3789,13 @@
         <v>700</v>
       </c>
       <c r="V60" s="3">
+        <v>700</v>
+      </c>
+      <c r="W60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,16 +3803,16 @@
         <v>1000</v>
       </c>
       <c r="E61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>800</v>
       </c>
       <c r="G61" s="3">
         <v>800</v>
       </c>
       <c r="H61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I61" s="3">
         <v>700</v>
@@ -3678,14 +3821,14 @@
         <v>700</v>
       </c>
       <c r="K61" s="3">
+        <v>700</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3699,22 +3842,25 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>600</v>
       </c>
       <c r="T61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U61" s="3">
         <v>500</v>
       </c>
       <c r="V61" s="3">
+        <v>500</v>
+      </c>
+      <c r="W61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,7 +3868,7 @@
         <v>2000</v>
       </c>
       <c r="E62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="3">
         <v>2100</v>
@@ -3743,7 +3889,7 @@
         <v>2100</v>
       </c>
       <c r="L62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M62" s="3">
         <v>2200</v>
@@ -3755,28 +3901,31 @@
         <v>2200</v>
       </c>
       <c r="P62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="Q62" s="3">
         <v>2100</v>
       </c>
       <c r="R62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S62" s="3">
         <v>4900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="E66" s="3">
         <v>3400</v>
       </c>
       <c r="F66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3100</v>
       </c>
       <c r="I66" s="3">
         <v>3100</v>
       </c>
       <c r="J66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K66" s="3">
         <v>3000</v>
       </c>
       <c r="L66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-108900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-108500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-108200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-107800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-107000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-106700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-106300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-105600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-104900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-106000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-104600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-104700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-104800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,16 +5018,17 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,13 +5406,16 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -5207,17 +5424,17 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-300</v>
-      </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
@@ -5225,25 +5442,25 @@
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
@@ -5252,10 +5469,13 @@
         <v>-300</v>
       </c>
       <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,40 +6041,43 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>800</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5840,28 +6086,31 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>-300</v>
-      </c>
       <c r="K102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>-300</v>
-      </c>
       <c r="O102" s="3">
         <v>-300</v>
       </c>
       <c r="P102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>-300</v>
-      </c>
       <c r="U102" s="3">
         <v>-300</v>
       </c>
       <c r="V102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,11 +1003,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>-100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
@@ -1040,10 +1054,13 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1277,28 +1304,28 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1307,16 +1334,16 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1342,28 +1372,28 @@
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
@@ -1372,16 +1402,16 @@
         <v>-400</v>
       </c>
       <c r="R18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
-        <v>-300</v>
-      </c>
       <c r="U18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-400</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1459,28 +1493,31 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,11 +1534,11 @@
         <v>-300</v>
       </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>-300</v>
-      </c>
       <c r="J21" s="3">
         <v>-300</v>
       </c>
@@ -1518,34 +1555,37 @@
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>200</v>
       </c>
       <c r="U21" s="3">
         <v>200</v>
       </c>
       <c r="V21" s="3">
+        <v>200</v>
+      </c>
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1614,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1709,8 +1755,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1721,11 +1767,11 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2239,93 +2309,99 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,55 +2660,56 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
       </c>
       <c r="K41" s="3">
+        <v>600</v>
+      </c>
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
@@ -2631,16 +2718,19 @@
         <v>200</v>
       </c>
       <c r="U41" s="3">
+        <v>200</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2849,11 +2948,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2894,78 +2993,84 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>700</v>
       </c>
       <c r="J46" s="3">
         <v>700</v>
       </c>
       <c r="K46" s="3">
+        <v>700</v>
+      </c>
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3050,7 +3158,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3062,11 +3170,11 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>700</v>
       </c>
       <c r="J54" s="3">
         <v>700</v>
       </c>
       <c r="K54" s="3">
+        <v>700</v>
+      </c>
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,20 +3664,21 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -3555,31 +3686,31 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3619,12 +3753,12 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3635,22 +3769,22 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
@@ -3661,11 +3795,14 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,7 +3810,7 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -3682,7 +3819,7 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3706,19 +3843,19 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
@@ -3729,22 +3866,25 @@
       <c r="W59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3753,7 +3893,7 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3765,22 +3905,22 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
+        <v>800</v>
+      </c>
+      <c r="S60" s="3">
         <v>2200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>700</v>
       </c>
       <c r="T60" s="3">
         <v>700</v>
@@ -3792,30 +3932,33 @@
         <v>700</v>
       </c>
       <c r="W60" s="3">
+        <v>700</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>1000</v>
       </c>
       <c r="F61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="3">
         <v>900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>800</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
       </c>
       <c r="I61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
@@ -3824,14 +3967,14 @@
         <v>700</v>
       </c>
       <c r="L61" s="3">
+        <v>700</v>
+      </c>
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3845,22 +3988,25 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>600</v>
       </c>
       <c r="U61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V61" s="3">
         <v>500</v>
       </c>
       <c r="W61" s="3">
+        <v>500</v>
+      </c>
+      <c r="X61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +4017,7 @@
         <v>2000</v>
       </c>
       <c r="F62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G62" s="3">
         <v>2100</v>
@@ -3892,7 +4038,7 @@
         <v>2100</v>
       </c>
       <c r="M62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="N62" s="3">
         <v>2200</v>
@@ -3904,28 +4050,31 @@
         <v>2200</v>
       </c>
       <c r="Q62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="R62" s="3">
         <v>2100</v>
       </c>
       <c r="S62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T62" s="3">
         <v>4900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3400</v>
       </c>
       <c r="F66" s="3">
         <v>3400</v>
       </c>
       <c r="G66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3100</v>
       </c>
       <c r="J66" s="3">
         <v>3100</v>
       </c>
       <c r="K66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="L66" s="3">
         <v>3000</v>
       </c>
       <c r="M66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-109300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-108900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-108500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-108200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-107400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-107000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-106700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-106300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-105900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-105200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-104600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-106000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-104600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-104700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-104800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,16 +5217,17 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,16 +5623,19 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -5427,17 +5644,17 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
@@ -5445,25 +5662,25 @@
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>-300</v>
-      </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
@@ -5472,10 +5689,13 @@
         <v>-300</v>
       </c>
       <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,43 +6287,46 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>800</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6089,28 +6335,31 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>-300</v>
-      </c>
       <c r="L102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>-300</v>
-      </c>
       <c r="P102" s="3">
         <v>-300</v>
       </c>
       <c r="Q102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>-300</v>
-      </c>
       <c r="V102" s="3">
         <v>-300</v>
       </c>
       <c r="W102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,13 +1003,14 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1006,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1057,10 +1070,13 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,17 +1143,20 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1153,8 +1172,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,7 +1321,7 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1307,28 +1333,28 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1337,16 +1363,16 @@
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1375,28 +1404,28 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
@@ -1405,16 +1434,16 @@
         <v>-400</v>
       </c>
       <c r="S18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
-        <v>-300</v>
-      </c>
       <c r="V18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-400</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1496,28 +1529,31 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1537,10 +1573,10 @@
         <v>-300</v>
       </c>
       <c r="I21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
@@ -1558,34 +1594,37 @@
         <v>-300</v>
       </c>
       <c r="P21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>200</v>
       </c>
       <c r="V21" s="3">
         <v>200</v>
       </c>
       <c r="W21" s="3">
+        <v>200</v>
+      </c>
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1617,7 +1656,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1652,8 +1691,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,67 +1703,70 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
       </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
       </c>
       <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>100</v>
       </c>
       <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1758,8 +1803,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1770,12 +1815,12 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,67 +1916,70 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
       </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
       </c>
       <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,67 +1987,70 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2312,28 +2381,31 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,67 +2413,70 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,140 +2555,146 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,58 +2746,59 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
       </c>
       <c r="L41" s="3">
+        <v>600</v>
+      </c>
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
-      </c>
-      <c r="S41" s="3">
-        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
@@ -2721,16 +2807,19 @@
         <v>200</v>
       </c>
       <c r="V41" s="3">
+        <v>200</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2951,11 +3049,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2996,81 +3094,87 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>700</v>
       </c>
       <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3149,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3161,7 +3268,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3173,11 +3280,11 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>700</v>
       </c>
       <c r="K54" s="3">
         <v>700</v>
       </c>
       <c r="L54" s="3">
+        <v>700</v>
+      </c>
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
       </c>
       <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,14 +3804,14 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -3689,31 +3819,31 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3756,11 +3889,11 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3772,22 +3905,22 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
@@ -3798,11 +3931,14 @@
       <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,7 +3949,7 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3822,7 +3958,7 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3846,19 +3982,19 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,16 +4017,16 @@
         <v>400</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -3896,7 +4035,7 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -3908,22 +4047,22 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>800</v>
       </c>
       <c r="S60" s="3">
+        <v>800</v>
+      </c>
+      <c r="T60" s="3">
         <v>2200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>700</v>
       </c>
       <c r="U60" s="3">
         <v>700</v>
@@ -3935,10 +4074,13 @@
         <v>700</v>
       </c>
       <c r="X60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,22 +4088,22 @@
         <v>1100</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1000</v>
       </c>
       <c r="G61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>800</v>
       </c>
       <c r="I61" s="3">
         <v>800</v>
       </c>
       <c r="J61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
@@ -3970,14 +4112,14 @@
         <v>700</v>
       </c>
       <c r="M61" s="3">
+        <v>700</v>
+      </c>
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3991,27 +4133,30 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>600</v>
       </c>
       <c r="V61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W61" s="3">
         <v>500</v>
       </c>
       <c r="X61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
         <v>2000</v>
@@ -4020,7 +4165,7 @@
         <v>2000</v>
       </c>
       <c r="G62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H62" s="3">
         <v>2100</v>
@@ -4041,7 +4186,7 @@
         <v>2100</v>
       </c>
       <c r="N62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="O62" s="3">
         <v>2200</v>
@@ -4053,28 +4198,31 @@
         <v>2200</v>
       </c>
       <c r="R62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="S62" s="3">
         <v>2100</v>
       </c>
       <c r="T62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U62" s="3">
         <v>4900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,67 +4443,70 @@
         <v>3500</v>
       </c>
       <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3400</v>
       </c>
       <c r="G66" s="3">
         <v>3400</v>
       </c>
       <c r="H66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3100</v>
       </c>
       <c r="K66" s="3">
         <v>3100</v>
       </c>
       <c r="L66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="M66" s="3">
         <v>3000</v>
       </c>
       <c r="N66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-110000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-109600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-109300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-108900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-108500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-108200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-107800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-107400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-106700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-106300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-105600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-105200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-104900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-104600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-106000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-104600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-104700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-104800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,67 +5327,70 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,19 +5839,22 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -5647,17 +5863,17 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-300</v>
-      </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
@@ -5665,25 +5881,25 @@
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-300</v>
@@ -5692,10 +5908,13 @@
         <v>-300</v>
       </c>
       <c r="X89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,46 +6532,49 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>800</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6338,28 +6583,31 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>-300</v>
-      </c>
       <c r="M102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q102" s="3">
         <v>-300</v>
       </c>
       <c r="R102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>-300</v>
-      </c>
       <c r="W102" s="3">
         <v>-300</v>
       </c>
       <c r="X102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,31 +1030,33 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1073,10 +1101,16 @@
         <v>0</v>
       </c>
       <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,23 +1180,29 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,11 +1215,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,22 +1364,24 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -1336,55 +1390,61 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>400</v>
-      </c>
       <c r="R17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
       <c r="W17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1395,10 +1455,10 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
@@ -1407,55 +1467,61 @@
         <v>-300</v>
       </c>
       <c r="J18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
-      </c>
       <c r="R18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-400</v>
       </c>
       <c r="T18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
       <c r="W18" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="X18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Y18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1532,39 +1600,45 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
@@ -1576,13 +1650,13 @@
         <v>-300</v>
       </c>
       <c r="J21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
@@ -1597,34 +1671,40 @@
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1659,10 +1739,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
-      </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
-      </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
-      </c>
       <c r="R23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1806,11 +1898,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
@@ -1818,15 +1910,15 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
-      </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
-      </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
-      </c>
       <c r="R26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
-      </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
-      </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
-      </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2384,99 +2524,111 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
-      </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
-      </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
-      </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
-      </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
-      </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
-      </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>400</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>400</v>
+      </c>
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3052,14 +3250,14 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -3097,84 +3295,96 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3259,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3271,10 +3487,10 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3283,14 +3499,14 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>600</v>
+      </c>
+      <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,43 +4055,45 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3843,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3866,13 +4128,19 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3892,14 +4160,14 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3908,25 +4176,25 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -3934,11 +4202,17 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3952,19 +4226,19 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -3985,22 +4259,22 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
-      </c>
-      <c r="V59" s="3">
-        <v>300</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
@@ -4008,8 +4282,14 @@
       <c r="Y59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4020,28 +4300,28 @@
         <v>400</v>
       </c>
       <c r="F60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -4050,25 +4330,25 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>700</v>
-      </c>
-      <c r="V60" s="3">
-        <v>700</v>
       </c>
       <c r="W60" s="3">
         <v>700</v>
@@ -4077,55 +4357,61 @@
         <v>700</v>
       </c>
       <c r="Y60" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>700</v>
       </c>
       <c r="N61" s="3">
+        <v>700</v>
+      </c>
+      <c r="O61" s="3">
+        <v>700</v>
+      </c>
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4136,22 +4422,28 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,19 +4451,19 @@
         <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G62" s="3">
         <v>2000</v>
       </c>
       <c r="H62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J62" s="3">
         <v>2100</v>
@@ -4189,10 +4481,10 @@
         <v>2100</v>
       </c>
       <c r="O62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="P62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Q62" s="3">
         <v>2200</v>
@@ -4201,28 +4493,34 @@
         <v>2200</v>
       </c>
       <c r="S62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U62" s="3">
         <v>2100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>4900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>4700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>5200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>5800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E66" s="3">
         <v>3500</v>
       </c>
       <c r="F66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-110900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-110500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-110000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-109600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-109300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-108900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-108500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-108200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-107800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-107400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-107000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-106700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-106300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-105900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-105600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-105200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-104900</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-104600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-106000</v>
       </c>
       <c r="V72" s="3">
         <v>-104600</v>
       </c>
       <c r="W72" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-104700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-104800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1800</v>
       </c>
       <c r="O76" s="3">
         <v>-2000</v>
       </c>
       <c r="P76" s="3">
-        <v>-2200</v>
+        <v>-1800</v>
       </c>
       <c r="Q76" s="3">
         <v>-2000</v>
       </c>
       <c r="R76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-5700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-5900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-6100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
-      </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
-      </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
-      </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-400</v>
-      </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-300</v>
       </c>
       <c r="X89" s="3">
         <v>-300</v>
       </c>
       <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,70 +7036,76 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>300</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
       </c>
       <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,8 +1060,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1055,11 +1069,11 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1107,10 +1121,13 @@
         <v>0</v>
       </c>
       <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,26 +1203,29 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1221,8 +1241,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,16 +1392,17 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1384,7 +1411,7 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1396,28 +1423,28 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1426,16 +1453,16 @@
         <v>400</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>400</v>
       </c>
       <c r="Z17" s="3">
         <v>400</v>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-400</v>
@@ -1461,7 +1491,7 @@
         <v>-400</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
@@ -1473,28 +1503,28 @@
         <v>-300</v>
       </c>
       <c r="L18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
@@ -1503,25 +1533,28 @@
         <v>-400</v>
       </c>
       <c r="V18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>-400</v>
-      </c>
       <c r="Z18" s="3">
         <v>-400</v>
       </c>
       <c r="AA18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1606,28 +1640,31 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,8 +1677,8 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>-300</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
@@ -1656,10 +1693,10 @@
         <v>-300</v>
       </c>
       <c r="L21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
@@ -1677,34 +1714,37 @@
         <v>-300</v>
       </c>
       <c r="S21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X21" s="3">
-        <v>200</v>
       </c>
       <c r="Y21" s="3">
         <v>200</v>
       </c>
       <c r="Z21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1780,17 +1820,20 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-400</v>
-      </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
@@ -1798,67 +1841,70 @@
         <v>-400</v>
       </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-400</v>
-      </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
       <c r="M23" s="3">
         <v>-400</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-400</v>
       </c>
       <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X23" s="3">
-        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>100</v>
       </c>
       <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,8 +1950,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1916,12 +1962,12 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,17 +2060,20 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-400</v>
-      </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
@@ -2029,76 +2081,79 @@
         <v>-400</v>
       </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-400</v>
-      </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
       <c r="M26" s="3">
         <v>-400</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-400</v>
       </c>
       <c r="U26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>100</v>
       </c>
       <c r="Y26" s="3">
         <v>100</v>
       </c>
       <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
@@ -2106,67 +2161,70 @@
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-400</v>
-      </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>-400</v>
-      </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>-400</v>
-      </c>
       <c r="T27" s="3">
         <v>-400</v>
       </c>
       <c r="U27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>100</v>
       </c>
       <c r="Y27" s="3">
         <v>100</v>
       </c>
       <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2530,37 +2600,40 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
@@ -2568,67 +2641,70 @@
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-400</v>
-      </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>-400</v>
-      </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>-400</v>
-      </c>
       <c r="T33" s="3">
         <v>-400</v>
       </c>
       <c r="U33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>100</v>
       </c>
       <c r="Y33" s="3">
         <v>100</v>
       </c>
       <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,17 +2780,20 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
@@ -2722,149 +2801,155 @@
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-400</v>
-      </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>-400</v>
-      </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>-400</v>
-      </c>
       <c r="T35" s="3">
         <v>-400</v>
       </c>
       <c r="U35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>100</v>
       </c>
       <c r="Y35" s="3">
         <v>100</v>
       </c>
       <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,67 +3007,68 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>600</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
       </c>
       <c r="O41" s="3">
+        <v>600</v>
+      </c>
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
-      </c>
-      <c r="V41" s="3">
-        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
@@ -2990,16 +3077,19 @@
         <v>200</v>
       </c>
       <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3256,11 +3355,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -3301,90 +3400,96 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
       </c>
       <c r="N46" s="3">
         <v>700</v>
       </c>
       <c r="O46" s="3">
+        <v>700</v>
+      </c>
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
       <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,13 +3565,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3481,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3493,7 +3601,7 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3505,11 +3613,11 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>700</v>
       </c>
       <c r="O54" s="3">
+        <v>700</v>
+      </c>
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
-      </c>
-      <c r="V54" s="3">
-        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
       </c>
       <c r="X54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4069,20 +4200,20 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -4090,31 +4221,31 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4134,16 +4265,19 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4166,11 +4300,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4182,22 +4316,22 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
@@ -4208,11 +4342,14 @@
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4232,7 +4369,7 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -4241,7 +4378,7 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -4265,19 +4402,19 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
-      </c>
-      <c r="X59" s="3">
-        <v>300</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
@@ -4288,13 +4425,16 @@
       <c r="AA59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -4306,16 +4446,16 @@
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -4324,7 +4464,7 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -4336,22 +4476,22 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>800</v>
       </c>
       <c r="U60" s="3">
         <v>800</v>
       </c>
       <c r="V60" s="3">
+        <v>800</v>
+      </c>
+      <c r="W60" s="3">
         <v>2200</v>
-      </c>
-      <c r="W60" s="3">
-        <v>700</v>
       </c>
       <c r="X60" s="3">
         <v>700</v>
@@ -4363,10 +4503,13 @@
         <v>700</v>
       </c>
       <c r="AA60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,31 +4517,31 @@
         <v>1300</v>
       </c>
       <c r="E61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1100</v>
       </c>
       <c r="G61" s="3">
         <v>1100</v>
       </c>
       <c r="H61" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I61" s="3">
         <v>1000</v>
       </c>
       <c r="J61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>800</v>
       </c>
       <c r="L61" s="3">
         <v>800</v>
       </c>
       <c r="M61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
@@ -4407,14 +4550,14 @@
         <v>700</v>
       </c>
       <c r="P61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4428,22 +4571,25 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>600</v>
       </c>
       <c r="Y61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Z61" s="3">
         <v>500</v>
       </c>
       <c r="AA61" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,7 +4603,7 @@
         <v>1900</v>
       </c>
       <c r="G62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H62" s="3">
         <v>2000</v>
@@ -4466,7 +4612,7 @@
         <v>2000</v>
       </c>
       <c r="J62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K62" s="3">
         <v>2100</v>
@@ -4487,7 +4633,7 @@
         <v>2100</v>
       </c>
       <c r="Q62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="R62" s="3">
         <v>2200</v>
@@ -4499,28 +4645,31 @@
         <v>2200</v>
       </c>
       <c r="U62" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="V62" s="3">
         <v>2100</v>
       </c>
       <c r="W62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X62" s="3">
         <v>4900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,16 +4905,19 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3500</v>
       </c>
       <c r="F66" s="3">
         <v>3500</v>
@@ -4768,67 +4926,70 @@
         <v>3500</v>
       </c>
       <c r="H66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I66" s="3">
         <v>3700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3400</v>
       </c>
       <c r="J66" s="3">
         <v>3400</v>
       </c>
       <c r="K66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3100</v>
       </c>
       <c r="N66" s="3">
         <v>3100</v>
       </c>
       <c r="O66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="P66" s="3">
         <v>3000</v>
       </c>
       <c r="Q66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-111500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-110900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-110500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-110000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-109300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-108900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-108500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-108200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-107400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-107000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-106700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-106300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-105900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-105600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-105200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-104900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-104600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-106000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-104600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-104700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-104800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,99 +5815,105 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
@@ -5726,67 +5921,70 @@
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-400</v>
-      </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>-400</v>
-      </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>-400</v>
-      </c>
       <c r="T81" s="3">
         <v>-400</v>
       </c>
       <c r="U81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>100</v>
       </c>
       <c r="Y81" s="3">
         <v>100</v>
       </c>
       <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,19 +6502,19 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -6306,16 +6523,16 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
@@ -6324,25 +6541,25 @@
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-300</v>
@@ -6351,10 +6568,13 @@
         <v>-300</v>
       </c>
       <c r="AA89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7042,40 +7288,40 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>800</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7084,28 +7330,31 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,72 +7442,75 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-300</v>
       </c>
       <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-300</v>
       </c>
       <c r="T102" s="3">
         <v>-300</v>
       </c>
       <c r="U102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>-300</v>
       </c>
       <c r="Z102" s="3">
         <v>-300</v>
       </c>
       <c r="AA102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1063,23 +1090,23 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1124,10 +1151,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,32 +1239,38 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1244,11 +1283,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,22 +1455,22 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1426,55 +1479,61 @@
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
-        <v>400</v>
-      </c>
       <c r="U17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
       <c r="W17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
       </c>
       <c r="Z17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AB17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,22 +1541,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
@@ -1506,55 +1565,61 @@
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>-400</v>
-      </c>
       <c r="U18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-400</v>
       </c>
       <c r="W18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="Y18" s="3">
         <v>-300</v>
       </c>
       <c r="Z18" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="AA18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="AB18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1643,28 +1710,34 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1680,11 +1753,11 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
@@ -1696,13 +1769,13 @@
         <v>-300</v>
       </c>
       <c r="M21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
@@ -1717,34 +1790,40 @@
         <v>-300</v>
       </c>
       <c r="T21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
       <c r="V21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1788,10 +1867,10 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,79 +1917,85 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
-      </c>
       <c r="H23" s="3">
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
-      </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
-      </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>-400</v>
-      </c>
       <c r="U23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1953,11 +2044,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
@@ -1965,15 +2056,15 @@
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-400</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
-      </c>
       <c r="H26" s="3">
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
-      </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
-      </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>-400</v>
-      </c>
       <c r="U26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-400</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
-      </c>
       <c r="H27" s="3">
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
-      </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
-      </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
-      </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
-      </c>
       <c r="V27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2603,108 +2742,120 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-400</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
-      </c>
       <c r="H33" s="3">
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
-      </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
-      </c>
       <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
-      </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
-      </c>
       <c r="V33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-400</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
-      </c>
       <c r="H35" s="3">
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
-      </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
-      </c>
       <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
-      </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
-      </c>
       <c r="V35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>400</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>400</v>
+      </c>
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
-      </c>
-      <c r="W41" s="3">
-        <v>200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3358,14 +3555,14 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -3403,93 +3600,105 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,10 +3792,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3592,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3604,10 +3819,10 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3616,14 +3831,14 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,43 +4458,43 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4245,13 +4506,13 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4279,11 +4546,11 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4303,14 +4570,14 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4319,25 +4586,25 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
@@ -4345,19 +4612,25 @@
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -4372,19 +4645,19 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -4405,22 +4678,22 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>300</v>
       </c>
       <c r="AA59" s="3">
         <v>300</v>
@@ -4428,19 +4701,25 @@
       <c r="AB59" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -4449,28 +4728,28 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
-        <v>300</v>
-      </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -4479,25 +4758,25 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>700</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>700</v>
       </c>
       <c r="Z60" s="3">
         <v>700</v>
@@ -4506,64 +4785,70 @@
         <v>700</v>
       </c>
       <c r="AB60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
-      </c>
-      <c r="N61" s="3">
-        <v>700</v>
-      </c>
-      <c r="O61" s="3">
-        <v>700</v>
       </c>
       <c r="P61" s="3">
         <v>700</v>
       </c>
       <c r="Q61" s="3">
+        <v>700</v>
+      </c>
+      <c r="R61" s="3">
+        <v>700</v>
+      </c>
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4574,22 +4859,28 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4606,19 +4897,19 @@
         <v>1900</v>
       </c>
       <c r="H62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J62" s="3">
         <v>2000</v>
       </c>
       <c r="K62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M62" s="3">
         <v>2100</v>
@@ -4636,10 +4927,10 @@
         <v>2100</v>
       </c>
       <c r="R62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="S62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="T62" s="3">
         <v>2200</v>
@@ -4648,28 +4939,34 @@
         <v>2200</v>
       </c>
       <c r="V62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X62" s="3">
         <v>2100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>4900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>4700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>5200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>5800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3500</v>
       </c>
       <c r="H66" s="3">
         <v>3500</v>
       </c>
       <c r="I66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-112200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-111800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-111500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-110900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-110500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-110000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-109600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-109300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-108900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-108500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-108200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-107800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-107400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-106700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-106300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-105900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-105600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-105200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-104900</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-104600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-106000</v>
       </c>
       <c r="Y72" s="3">
         <v>-104600</v>
       </c>
       <c r="Z72" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-104700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-104800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-105300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1800</v>
       </c>
       <c r="R76" s="3">
         <v>-2000</v>
       </c>
       <c r="S76" s="3">
-        <v>-2200</v>
+        <v>-1800</v>
       </c>
       <c r="T76" s="3">
         <v>-2000</v>
       </c>
       <c r="U76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W76" s="3">
         <v>-2300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-6100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-6500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-400</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
-      </c>
       <c r="H81" s="3">
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
-      </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
-      </c>
       <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
-      </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
-      </c>
       <c r="V81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6505,76 +6938,82 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-300</v>
       </c>
       <c r="AA89" s="3">
         <v>-300</v>
       </c>
       <c r="AB89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,13 +7758,19 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7291,70 +7782,76 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7445,72 +7948,78 @@
         <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>300</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>300</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RGRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>RGRX</t>
   </si>
@@ -2171,8 +2171,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
@@ -2257,8 +2257,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
@@ -2773,8 +2773,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
@@ -2945,8 +2945,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
@@ -4540,8 +4540,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>1200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -6297,8 +6297,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
